--- a/HybridRediff/Files/StockSuite.xlsx
+++ b/HybridRediff/Files/StockSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Tata Steel Ltd</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -534,12 +537,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -555,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -563,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -571,7 +574,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -579,7 +582,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -596,14 +599,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -960,16 +963,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
